--- a/data/trans_orig/P23_1_2016_2023_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023_R-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>250552</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>225290</v>
+        <v>225391</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>277645</v>
+        <v>275699</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3712976079623061</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3338611676095604</v>
+        <v>0.3340109672870744</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4114474555116718</v>
+        <v>0.4085643038966584</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>168</v>
@@ -763,19 +763,19 @@
         <v>168409</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>146269</v>
+        <v>147669</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>192698</v>
+        <v>192858</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2507098113278939</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2177500585186067</v>
+        <v>0.2198333742677101</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2868677096581573</v>
+        <v>0.2871059157912224</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>405</v>
@@ -784,19 +784,19 @@
         <v>418961</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>387955</v>
+        <v>386594</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>453581</v>
+        <v>452868</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3111411780207766</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2881149179878671</v>
+        <v>0.2871035863442687</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3368518341123359</v>
+        <v>0.3363225304209573</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>424248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>397155</v>
+        <v>399101</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>449510</v>
+        <v>449409</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.628702392037694</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5885525444883282</v>
+        <v>0.5914356961033416</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.666138832390439</v>
+        <v>0.6659890327129255</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>497</v>
@@ -834,19 +834,19 @@
         <v>503321</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>479032</v>
+        <v>478872</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>525461</v>
+        <v>524061</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7492901886721062</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7131322903418426</v>
+        <v>0.7128940842087784</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7822499414813933</v>
+        <v>0.78016662573229</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>912</v>
@@ -855,19 +855,19 @@
         <v>927569</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>892949</v>
+        <v>893662</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>958575</v>
+        <v>959936</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6888588219792234</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6631481658876641</v>
+        <v>0.6636774695790427</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.711885082012133</v>
+        <v>0.7128964136557313</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>334788</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>304899</v>
+        <v>304011</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>366059</v>
+        <v>366881</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3277865067815245</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2985227076189479</v>
+        <v>0.2976538716652484</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3584036007419799</v>
+        <v>0.3592089198489611</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>261</v>
@@ -980,19 +980,19 @@
         <v>270928</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>242220</v>
+        <v>242540</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>300505</v>
+        <v>300064</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.260011308724465</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2324596907240454</v>
+        <v>0.23276725233721</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2883962436804103</v>
+        <v>0.2879729815847988</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>564</v>
@@ -1001,19 +1001,19 @@
         <v>605716</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>564369</v>
+        <v>560483</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>650883</v>
+        <v>645301</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2935601495042545</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2735217596021586</v>
+        <v>0.2716384058951963</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3154505207459227</v>
+        <v>0.3127453146415384</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>686571</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>655300</v>
+        <v>654478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>716460</v>
+        <v>717348</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6722134932184755</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6415963992580203</v>
+        <v>0.6407910801510388</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7014772923810522</v>
+        <v>0.7023461283347516</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>715</v>
@@ -1051,19 +1051,19 @@
         <v>771057</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>741480</v>
+        <v>741921</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>799765</v>
+        <v>799445</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.739988691275535</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7116037563195896</v>
+        <v>0.7120270184152012</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7675403092759546</v>
+        <v>0.76723274766279</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1362</v>
@@ -1072,19 +1072,19 @@
         <v>1457628</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1412461</v>
+        <v>1418043</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1498975</v>
+        <v>1502861</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7064398504957455</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6845494792540773</v>
+        <v>0.6872546853584617</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7264782403978414</v>
+        <v>0.7283615941048037</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>309010</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>281498</v>
+        <v>283447</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>336490</v>
+        <v>337786</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4072955114794186</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3710322055630618</v>
+        <v>0.3736009048118401</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4435159023515199</v>
+        <v>0.4452239952036673</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>218</v>
@@ -1197,19 +1197,19 @@
         <v>225257</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>200624</v>
+        <v>200669</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>250340</v>
+        <v>248865</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2877237162295818</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2562588977824102</v>
+        <v>0.2563168393973038</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3197614624964526</v>
+        <v>0.3178779248988568</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>494</v>
@@ -1218,19 +1218,19 @@
         <v>534267</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>493350</v>
+        <v>496748</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>572638</v>
+        <v>576674</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3465708147344895</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3200284333769179</v>
+        <v>0.322232402950316</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3714614381287391</v>
+        <v>0.3740795049785521</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>449678</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>422198</v>
+        <v>420902</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>477190</v>
+        <v>475241</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5927044885205814</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5564840976484801</v>
+        <v>0.5547760047963326</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.628967794436938</v>
+        <v>0.6263990951881598</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>516</v>
@@ -1268,19 +1268,19 @@
         <v>557638</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>532555</v>
+        <v>534030</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>582271</v>
+        <v>582226</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7122762837704183</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6802385375035477</v>
+        <v>0.6821220751011432</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7437411022175898</v>
+        <v>0.7436831606026962</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>935</v>
@@ -1289,19 +1289,19 @@
         <v>1007315</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>968944</v>
+        <v>964908</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1048232</v>
+        <v>1044834</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6534291852655105</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6285385618712606</v>
+        <v>0.6259204950214476</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.679971566623082</v>
+        <v>0.677767597049684</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>281788</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>254371</v>
+        <v>254894</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>309089</v>
+        <v>311447</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3005521831405399</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2713095092360451</v>
+        <v>0.2718674500941272</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3296711581628481</v>
+        <v>0.3321860138985115</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>246</v>
@@ -1414,19 +1414,19 @@
         <v>257384</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>228170</v>
+        <v>231549</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>288509</v>
+        <v>288923</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.24689271458939</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2188697697761981</v>
+        <v>0.2221102519082762</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2767488012029409</v>
+        <v>0.277146288713232</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>524</v>
@@ -1435,19 +1435,19 @@
         <v>539172</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>494670</v>
+        <v>496828</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>577291</v>
+        <v>580787</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2723006990549374</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2498258273541775</v>
+        <v>0.2509157240964967</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2915521852703119</v>
+        <v>0.2933176788737412</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>655779</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>628478</v>
+        <v>626120</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>683196</v>
+        <v>682673</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.69944781685946</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6703288418371519</v>
+        <v>0.6678139861014885</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7286904907639552</v>
+        <v>0.7281325499058724</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>712</v>
@@ -1485,19 +1485,19 @@
         <v>785110</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>753985</v>
+        <v>753571</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>814324</v>
+        <v>810945</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.75310728541061</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7232511987970591</v>
+        <v>0.7228537112867679</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7811302302238019</v>
+        <v>0.7778897480917237</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1366</v>
@@ -1506,19 +1506,19 @@
         <v>1440889</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1402770</v>
+        <v>1399274</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1485391</v>
+        <v>1483233</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7276993009450626</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7084478147296881</v>
+        <v>0.7066823211262576</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7501741726458224</v>
+        <v>0.7490842759035031</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>1176137</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1119128</v>
+        <v>1116145</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1231797</v>
+        <v>1230954</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3466962845575992</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3298913901695234</v>
+        <v>0.3290120175879894</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3631035297314275</v>
+        <v>0.3628549158123226</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>893</v>
@@ -1631,19 +1631,19 @@
         <v>921979</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>869446</v>
+        <v>867694</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>975772</v>
+        <v>980415</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2605119304646502</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2456685304786344</v>
+        <v>0.2451734870609874</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2757115418303183</v>
+        <v>0.2770235842803463</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1987</v>
@@ -1652,19 +1652,19 @@
         <v>2098116</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2015935</v>
+        <v>2024341</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2177136</v>
+        <v>2182727</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3026921600306471</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2908360125738308</v>
+        <v>0.292048827185374</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3140923339294397</v>
+        <v>0.3148988635813798</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2216277</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2160617</v>
+        <v>2161460</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2273286</v>
+        <v>2276269</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6533037154424008</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6368964702685724</v>
+        <v>0.6371450841876773</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6701086098304765</v>
+        <v>0.6709879824120105</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2440</v>
@@ -1702,19 +1702,19 @@
         <v>2617124</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2563331</v>
+        <v>2558688</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2669657</v>
+        <v>2671409</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7394880695353498</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7242884581696817</v>
+        <v>0.7229764157196541</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7543314695213658</v>
+        <v>0.7548265129390126</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4575</v>
@@ -1723,19 +1723,19 @@
         <v>4833401</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4754381</v>
+        <v>4748790</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4915582</v>
+        <v>4907176</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6973078399693529</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6859076660705602</v>
+        <v>0.6851011364186201</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.709163987426169</v>
+        <v>0.7079511728146259</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>192912</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>169496</v>
+        <v>168635</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>219801</v>
+        <v>220148</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.279733346595178</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2457793472095444</v>
+        <v>0.2445299534580368</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3187235380284512</v>
+        <v>0.3192272996591443</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>188</v>
@@ -2088,19 +2088,19 @@
         <v>129892</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>113296</v>
+        <v>114479</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>150444</v>
+        <v>152371</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1771781655348796</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1545408174628461</v>
+        <v>0.1561539644858853</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2052129269597058</v>
+        <v>0.2078407697722825</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>377</v>
@@ -2109,19 +2109,19 @@
         <v>322804</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>292458</v>
+        <v>293133</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>353981</v>
+        <v>357651</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2268884796645483</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2055596425878323</v>
+        <v>0.2060339665429268</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2488018347836723</v>
+        <v>0.2513819456681215</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>496716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>469827</v>
+        <v>469480</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>520132</v>
+        <v>520993</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.720266653404822</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6812764619715489</v>
+        <v>0.6807727003408551</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7542206527904557</v>
+        <v>0.7554700465419631</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1051</v>
@@ -2159,19 +2159,19 @@
         <v>603221</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>582669</v>
+        <v>580742</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>619817</v>
+        <v>618634</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8228218344651205</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7947870730402942</v>
+        <v>0.7921592302277174</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8454591825371537</v>
+        <v>0.8438460355141145</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1591</v>
@@ -2180,19 +2180,19 @@
         <v>1099937</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1068760</v>
+        <v>1065090</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1130283</v>
+        <v>1129608</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7731115203354516</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.751198165216328</v>
+        <v>0.7486180543318787</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7944403574121678</v>
+        <v>0.7939660334570734</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>254952</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>223388</v>
+        <v>221762</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>285795</v>
+        <v>288265</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2433268826419897</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2132020343073754</v>
+        <v>0.2116498777028213</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2727636746318916</v>
+        <v>0.2751209815650689</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>260</v>
@@ -2305,19 +2305,19 @@
         <v>195819</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>176774</v>
+        <v>173504</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>221289</v>
+        <v>222223</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1828649287416532</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1650800115502632</v>
+        <v>0.1620259233130529</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2066499472826346</v>
+        <v>0.2075224751136088</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>485</v>
@@ -2326,19 +2326,19 @@
         <v>450771</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>415300</v>
+        <v>411355</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>493583</v>
+        <v>491974</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2127668210014368</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1960244862147283</v>
+        <v>0.1941624932273185</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2329742969596424</v>
+        <v>0.2322152047476772</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>792824</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>761981</v>
+        <v>759511</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>824388</v>
+        <v>826014</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7566731173580102</v>
+        <v>0.7566731173580101</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7272363253681083</v>
+        <v>0.7248790184349312</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7867979656926247</v>
+        <v>0.7883501222971787</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1256</v>
@@ -2376,19 +2376,19 @@
         <v>875019</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>849549</v>
+        <v>848615</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>894064</v>
+        <v>897334</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8171350712583469</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7933500527173657</v>
+        <v>0.7924775248863913</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8349199884497369</v>
+        <v>0.8379740766869471</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1994</v>
@@ -2397,19 +2397,19 @@
         <v>1667843</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1625031</v>
+        <v>1626640</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1703314</v>
+        <v>1707259</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7872331789985633</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7670257030403576</v>
+        <v>0.7677847952523228</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8039755137852718</v>
+        <v>0.8058375067726815</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>214326</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>183583</v>
+        <v>187742</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>245174</v>
+        <v>246400</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2672748498908972</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2289362076932956</v>
+        <v>0.2341233869228812</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3057428512669647</v>
+        <v>0.3072724949924867</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>219</v>
@@ -2522,19 +2522,19 @@
         <v>173921</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>152186</v>
+        <v>153144</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>197211</v>
+        <v>197283</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2141203981565846</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1873617561465688</v>
+        <v>0.1885412771693547</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.242793001712303</v>
+        <v>0.2428822558853596</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>383</v>
@@ -2543,19 +2543,19 @@
         <v>388248</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>350035</v>
+        <v>350073</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>426134</v>
+        <v>427288</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2405269861004049</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2168538423980503</v>
+        <v>0.2168769677735468</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2639981191488283</v>
+        <v>0.2647133801087358</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>587569</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>556721</v>
+        <v>555495</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>618312</v>
+        <v>614153</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7327251501091029</v>
+        <v>0.7327251501091028</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6942571487330353</v>
+        <v>0.6927275050075137</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7710637923067044</v>
+        <v>0.7658766130771189</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>828</v>
@@ -2593,19 +2593,19 @@
         <v>638338</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>615048</v>
+        <v>614976</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>660073</v>
+        <v>659115</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7858796018434154</v>
+        <v>0.7858796018434152</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.757206998287697</v>
+        <v>0.7571177441146405</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8126382438534314</v>
+        <v>0.8114587228306452</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1339</v>
@@ -2614,19 +2614,19 @@
         <v>1225906</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1188020</v>
+        <v>1186866</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1264119</v>
+        <v>1264081</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.759473013899595</v>
+        <v>0.7594730138995951</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7360018808511717</v>
+        <v>0.7352866198912642</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7831461576019496</v>
+        <v>0.783123032226454</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>239558</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>211903</v>
+        <v>212393</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>267619</v>
+        <v>266954</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2419624907411758</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2140303787052835</v>
+        <v>0.2145251992062417</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2703053102964267</v>
+        <v>0.2696340247043757</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>285</v>
@@ -2739,19 +2739,19 @@
         <v>207582</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>185115</v>
+        <v>185447</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>230183</v>
+        <v>230151</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1861440645094473</v>
+        <v>0.1861440645094474</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1659969660105539</v>
+        <v>0.1662943981656577</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2064103067570357</v>
+        <v>0.206381657567166</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>518</v>
@@ -2760,19 +2760,19 @@
         <v>447140</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>415215</v>
+        <v>411506</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>487263</v>
+        <v>487737</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2123947206168778</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1972299573443135</v>
+        <v>0.1954680097473459</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2314533558555638</v>
+        <v>0.2316786942221715</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>750504</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>722443</v>
+        <v>723108</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>778159</v>
+        <v>777669</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7580375092588242</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7296946897035734</v>
+        <v>0.7303659752956244</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7859696212947166</v>
+        <v>0.7854748007937583</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1274</v>
@@ -2810,19 +2810,19 @@
         <v>907588</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>884987</v>
+        <v>885019</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>930055</v>
+        <v>929723</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8138559354905527</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7935896932429642</v>
+        <v>0.7936183424328338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8340030339894461</v>
+        <v>0.8337056018343419</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2047</v>
@@ -2831,19 +2831,19 @@
         <v>1658092</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1617969</v>
+        <v>1617495</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1690017</v>
+        <v>1693726</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7876052793831221</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7685466441444362</v>
+        <v>0.7683213057778288</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8027700426556865</v>
+        <v>0.804531990252654</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>901748</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>840920</v>
+        <v>844937</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>959501</v>
+        <v>959800</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2554990116196763</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2382641432519156</v>
+        <v>0.2394022922885192</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2718623964469848</v>
+        <v>0.2719471848166741</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>952</v>
@@ -2956,19 +2956,19 @@
         <v>707214</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>663222</v>
+        <v>666124</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>747844</v>
+        <v>756338</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.18953143835764</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1777417211281965</v>
+        <v>0.178519485723527</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2004202949547753</v>
+        <v>0.2026964780136919</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1763</v>
@@ -2977,19 +2977,19 @@
         <v>1608962</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1537825</v>
+        <v>1538225</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1683452</v>
+        <v>1684558</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2215975019216167</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2118000868114483</v>
+        <v>0.2118551120516892</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2318568348086373</v>
+        <v>0.2320091775632078</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>2627613</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2569860</v>
+        <v>2569561</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2688441</v>
+        <v>2684424</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7445009883803236</v>
+        <v>0.7445009883803237</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7281376035530159</v>
+        <v>0.7280528151833261</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7617358567480844</v>
+        <v>0.7605977077114809</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4409</v>
@@ -3027,19 +3027,19 @@
         <v>3024166</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2983536</v>
+        <v>2975042</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3068158</v>
+        <v>3065256</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.81046856164236</v>
+        <v>0.8104685616423599</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7995797050452246</v>
+        <v>0.7973035219863079</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.822258278871803</v>
+        <v>0.821480514276473</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6971</v>
@@ -3048,19 +3048,19 @@
         <v>5651778</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5577288</v>
+        <v>5576182</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5722915</v>
+        <v>5722515</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7784024980783832</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7681431651913628</v>
+        <v>0.7679908224367922</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7881999131885518</v>
+        <v>0.7881448879483108</v>
       </c>
     </row>
     <row r="18">
